--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B898908-9E42-4817-96E6-07768D6DC25F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372ACFC9-A824-4D3E-957C-2E99EE1B2DF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>팀명: 2조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디어 선정 및 프로젝트 계획서 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -290,6 +286,195 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>아이디어 선정 및 프로젝트 계획서 작성 / GitHub Storage 생성 및 초대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 계획서 수정 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Competetion, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요기능)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 계획서 바탕으로 프레젠테이션 준비</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레젠테이션 발표 준비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 관련 경쟁 서비스 조사 및 차별점 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ideation</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 프레젠테이션 자료 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 계획서 최종 수정 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Node js 강의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프로토타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제작 - 기본 Form UI</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인, 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 입력, 입력 결과를 보여주는 프로토타입 제작</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +484,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,6 +553,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +612,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -456,6 +659,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -843,7 +1049,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -852,7 +1058,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="6" max="6" width="62.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,7 +1082,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3"/>
     </row>
@@ -918,88 +1124,208 @@
         <v>100</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>43717</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="14">
+        <v>43717</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>30</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
+      <c r="A9" s="14">
+        <v>43718</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>43729</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <v>43734</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <v>43734</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>60</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>43736</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>120</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
+      <c r="A15" s="14">
+        <v>43737</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>120</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14">
+        <v>43738</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D16" s="9">
+        <v>90</v>
+      </c>
+      <c r="E16" s="17">
+        <v>340</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372ACFC9-A824-4D3E-957C-2E99EE1B2DF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7FD9B-6D5D-4771-A6D8-F94422812BA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -473,6 +473,25 @@
       </rPr>
       <t xml:space="preserve"> 입력, 입력 결과를 보여주는 프로토타입 제작</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Node js express 강의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 express framework 적용 / refactoring</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A1048529" workbookViewId="0">
+      <selection activeCell="F1048551" sqref="F1048551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1328,28 +1347,64 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="14">
+        <v>43742</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+      <c r="A18" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>90</v>
+      </c>
+      <c r="E18" s="17">
+        <v>270</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>43746</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>60</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7FD9B-6D5D-4771-A6D8-F94422812BA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BFC193-F898-4CF6-9BF3-AA44AA1B0FB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,15 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1067,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048529" workbookViewId="0">
-      <selection activeCell="F1048551" sqref="F1048551"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BFC193-F898-4CF6-9BF3-AA44AA1B0FB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0066FC-89D6-45E9-98E3-38B43FF2477F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -500,6 +500,80 @@
   </si>
   <si>
     <t>프로토타입 express framework 적용 / refactoring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 express framework 적용 / refactoring (html 분리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 Code refactoring - DB 연결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 Code refactoring - DB 연결 및 입력한 DB 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data Set 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 최종 SRS 1.0 제출</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 발표자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> PPT 준비</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 보완</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 연습</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1075,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1415,60 +1489,144 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="14">
+        <v>43753</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D20" s="9">
+        <v>30</v>
+      </c>
+      <c r="E20" s="17">
+        <v>210</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="14">
+        <v>43754</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>120</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="4"/>
+      <c r="A22" s="14">
+        <v>43758</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>120</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>43761</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>120</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
+      <c r="A24" s="14">
+        <v>43765</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>180</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>43766</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>60</v>
+      </c>
+      <c r="E25" s="17">
+        <v>300</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>43767</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>30</v>
+      </c>
+      <c r="E26" s="17">
+        <v>210</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0066FC-89D6-45E9-98E3-38B43FF2477F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9F5BA-4F0F-416F-A6CB-970B83A1F482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -573,6 +573,55 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 및 연습</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>타팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> SRS Review</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Skeleton Code refactoring - Function과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Controller 분리</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding Guideline 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coding Guideline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1149,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1629,44 +1678,104 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="14">
+        <v>43769</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>30</v>
+      </c>
+      <c r="E27" s="17">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="14">
+        <v>43770</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>60</v>
+      </c>
+      <c r="E28" s="17">
+        <v>180</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="14">
+        <v>43771</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="14">
+        <v>43770</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="14">
+        <v>43775</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>120</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9F5BA-4F0F-416F-A6CB-970B83A1F482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB599B-DA7B-44DE-B6E5-D8B24CC3D028}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -622,6 +622,36 @@
         <charset val="129"/>
       </rPr>
       <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>팀원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결과물 취합 및 SAD 1.0 제작</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SAD 1.0 발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 준비</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1198,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1777,21 +1807,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="4"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="14">
+        <v>43782</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>120</v>
+      </c>
+      <c r="E32" s="17">
+        <v>360</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="14">
+        <v>43783</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>120</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB599B-DA7B-44DE-B6E5-D8B24CC3D028}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{8DDB6CDD-D274-40F7-83FD-AA71575A8ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B92B5E35-5A99-4EC9-AC81-4E4F7B21CB3A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -652,6 +652,180 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 준비</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업무 분배 문서 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Github Clone 후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개발환경 세팅 문서 작성 및 공유</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Student </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 CRUD 기능 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - Subject 과목 정보 다운로드 및 DB 업로드</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성 및 공유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발 업무 재분배</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - Subject 과목 리스트 UI 및 입력, 저장 구현</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -760,7 +934,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -783,6 +957,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -792,7 +977,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -842,6 +1027,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1226,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1848,44 +2035,184 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
+      <c r="A35" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>120</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14">
+        <v>43789</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D36" s="9">
+        <v>30</v>
+      </c>
+      <c r="E36" s="9">
+        <v>120</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="14">
+        <v>43795</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9">
+        <v>210</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="14">
+        <v>43796</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D38" s="9">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9">
+        <v>180</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A39" s="14">
+        <v>43797</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>120</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A40" s="14">
+        <v>43798</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>90</v>
+      </c>
+      <c r="E40" s="8">
+        <v>330</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>43799</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>120</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>43799</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D42" s="8">
+        <v>120</v>
+      </c>
+      <c r="E42" s="8">
+        <v>420</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{8DDB6CDD-D274-40F7-83FD-AA71575A8ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B92B5E35-5A99-4EC9-AC81-4E4F7B21CB3A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278198DC-5515-499C-B1AA-F0EA82DAE48D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -827,6 +827,29 @@
       </rPr>
       <t xml:space="preserve"> - Subject 과목 리스트 UI 및 입력, 저장 구현</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - Condition 시간표 기호조건 입력, 저장 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 - 시간표리스트 UI 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 - 시간표리스트 UI 구현 &amp; 팀원 결과물 합치기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -977,7 +1000,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1029,6 +1052,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1413,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2212,6 +2236,86 @@
       </c>
       <c r="F42" s="26" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>43802</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>120</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43802</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>180</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>43803</v>
+      </c>
+      <c r="B45" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>300</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>43803</v>
+      </c>
+      <c r="B46" s="25">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>210</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278198DC-5515-499C-B1AA-F0EA82DAE48D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34C664-1384-42F3-A11D-71740D594EBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -850,6 +850,42 @@
   </si>
   <si>
     <t>개발 - 시간표리스트 UI 구현 &amp; 팀원 결과물 합치기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 개인 요람 생성 및 맞춤과목 리스트 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 시간표 데이터 수치화</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1036,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1053,6 +1089,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1437,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2316,6 +2353,106 @@
       </c>
       <c r="F46" s="27" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A47" s="14">
+        <v>43804</v>
+      </c>
+      <c r="B47" s="25">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C47" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
+        <v>210</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A48" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B48" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="8">
+        <v>30</v>
+      </c>
+      <c r="E48" s="8">
+        <v>270</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B49" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D49" s="8">
+        <v>30</v>
+      </c>
+      <c r="E49" s="8">
+        <v>180</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B50" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>120</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A51" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B51" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D51" s="8">
+        <v>90</v>
+      </c>
+      <c r="E51" s="8">
+        <v>390</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34C664-1384-42F3-A11D-71740D594EBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3A695F-738A-463D-BFB7-765E88A81B3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -886,6 +886,56 @@
       </rPr>
       <t xml:space="preserve"> - 시간표 데이터 수치화</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종결과물 시연 영상 촬영, 최종결과물 정리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1474,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2453,6 +2503,106 @@
       </c>
       <c r="F51" s="28" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A52" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B52" s="25">
+        <v>0</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D52" s="8">
+        <v>30</v>
+      </c>
+      <c r="E52" s="8">
+        <v>210</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A53" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D53" s="8">
+        <v>120</v>
+      </c>
+      <c r="E53" s="8">
+        <v>570</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A54" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B54" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>60</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A55" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B55" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C55" s="25">
+        <v>0</v>
+      </c>
+      <c r="D55" s="8">
+        <v>60</v>
+      </c>
+      <c r="E55" s="8">
+        <v>240</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>43809</v>
+      </c>
+      <c r="B56" s="25">
+        <v>0</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="D56" s="8">
+        <v>60</v>
+      </c>
+      <c r="E56" s="8">
+        <v>300</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/PSP_Sheets/PSP_Sheet_박진영.xlsx
+++ b/PSP_Sheets/PSP_Sheet_박진영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3A695F-738A-463D-BFB7-765E88A81B3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF33C4C-324D-4397-86D6-57D3ED14D1BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -937,6 +937,309 @@
   <si>
     <t>최종결과물 시연 영상 촬영, 최종결과물 정리</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기존 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능 재논의 &amp; 새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target Application Review를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 재논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 리스트업</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Use Case Diagram 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 교수님 피드백 사항 점검 및 수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선정, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핵심로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 구체화(시간표 구성 요건, 피드백로직)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Case Spec 작성</t>
+  </si>
+  <si>
+    <r>
+      <t>GUI Review, Use Case Spec Review, 핵심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 로직 논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data, Use Case Spec, DB 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등 각자 작업물 Review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 논의</t>
+    </r>
+  </si>
+  <si>
+    <t>개발 환경 세팅</t>
+  </si>
+  <si>
+    <t>최종 결과물을 위한 업무 분배</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업무 진행(각종 정보 입력 및 저장 구현, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HTML/CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업, 추천 로직 구현, 문서 작성)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Case를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 Data Set 논의 및 Data 생성</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -947,7 +1250,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1034,6 +1337,11 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1086,7 +1394,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1140,6 +1448,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1524,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1665,235 +2181,235 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>43726</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>75</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
         <v>60</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15">
+    <row r="12" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
+        <v>75</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="15">
         <v>43729</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B13" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>0.75</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
         <v>120</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
-        <v>43734</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
+    <row r="14" spans="1:6" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>43732</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="42">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="43">
         <v>60</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
-        <v>43734</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>60</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>43736</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>120</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>43737</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>120</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
+      <c r="E14" s="45">
+        <v>180</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
+        <v>43733</v>
+      </c>
+      <c r="B15" s="48">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D15" s="49">
+        <v>40</v>
+      </c>
+      <c r="E15" s="50">
+        <v>200</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
-        <v>43738</v>
+        <v>43734</v>
       </c>
       <c r="B16" s="3">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>340</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
-        <v>43742</v>
+        <v>43734</v>
       </c>
       <c r="B17" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="17">
+        <v>60</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>43734</v>
+      </c>
+      <c r="B18" s="54">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="56">
+        <v>75</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>43735</v>
+      </c>
+      <c r="B19" s="60">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="60">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="61">
+        <v>0</v>
+      </c>
+      <c r="E19" s="62">
         <v>120</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>43744</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>90</v>
-      </c>
-      <c r="E18" s="17">
-        <v>270</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>43746</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>60</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43753</v>
+        <v>43736</v>
       </c>
       <c r="B20" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C20" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>210</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43754</v>
+        <v>43737</v>
       </c>
       <c r="B21" s="3">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>0.875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -1901,199 +2417,199 @@
       <c r="E21" s="17">
         <v>120</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
-        <v>43758</v>
+        <v>43738</v>
       </c>
       <c r="B22" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C22" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D22" s="9">
+        <v>90</v>
+      </c>
+      <c r="E22" s="17">
+        <v>340</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="69">
+        <v>43739</v>
+      </c>
+      <c r="B23" s="65">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="C23" s="65">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
         <v>120</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>43761</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>120</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>24</v>
+      <c r="F23" s="66" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43765</v>
+        <v>43742</v>
       </c>
       <c r="B24" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C24" s="3">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="17">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="74">
+        <v>43743</v>
+      </c>
+      <c r="B25" s="71">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C25" s="71">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D25" s="72">
+        <v>0</v>
+      </c>
+      <c r="E25" s="73">
+        <v>150</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>90</v>
+      </c>
+      <c r="E26" s="17">
+        <v>270</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
+        <v>43745</v>
+      </c>
+      <c r="B27" s="77">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="77">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D27" s="79">
+        <v>0</v>
+      </c>
+      <c r="E27" s="80">
         <v>180</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>43766</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C25" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="F27" s="78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>43746</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
         <v>60</v>
       </c>
-      <c r="E25" s="17">
+      <c r="F28" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="76" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A29" s="87">
+        <v>43751</v>
+      </c>
+      <c r="B29" s="83">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C29" s="83">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D29" s="85">
+        <v>30</v>
+      </c>
+      <c r="E29" s="86">
         <v>300</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>43767</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="9">
-        <v>30</v>
-      </c>
-      <c r="E26" s="17">
-        <v>210</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>43769</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D27" s="9">
-        <v>30</v>
-      </c>
-      <c r="E27" s="17">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>43770</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9">
-        <v>60</v>
-      </c>
-      <c r="E28" s="17">
-        <v>180</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>43771</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>90</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>29</v>
+      <c r="F29" s="84" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43770</v>
+        <v>43753</v>
       </c>
       <c r="B30" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C30" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D30" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E30" s="17">
-        <v>90</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>43775</v>
+        <v>43754</v>
       </c>
       <c r="B31" s="3">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C31" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -2101,39 +2617,39 @@
       <c r="E31" s="17">
         <v>120</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>43782</v>
+        <v>43758</v>
       </c>
       <c r="B32" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
         <v>120</v>
       </c>
-      <c r="E32" s="17">
-        <v>360</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>43783</v>
+        <v>43761</v>
       </c>
       <c r="B33" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C33" s="3">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -2141,467 +2657,787 @@
       <c r="E33" s="17">
         <v>120</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>43788</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>60</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>34</v>
+      <c r="F33" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="82" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A34" s="93">
+        <v>43762</v>
+      </c>
+      <c r="B34" s="89">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="89">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D34" s="91">
+        <v>0</v>
+      </c>
+      <c r="E34" s="92">
+        <v>120</v>
+      </c>
+      <c r="F34" s="90" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>43788</v>
+        <v>43765</v>
       </c>
       <c r="B35" s="3">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C35" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
       </c>
       <c r="E35" s="17">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>43789</v>
+        <v>43766</v>
       </c>
       <c r="B36" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="C36" s="3">
-        <v>0.9375</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="9">
-        <v>30</v>
-      </c>
-      <c r="E36" s="9">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="17">
+        <v>300</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>43795</v>
+        <v>43767</v>
       </c>
       <c r="B37" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="9">
         <v>30</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="17">
         <v>210</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>43796</v>
+        <v>43769</v>
       </c>
       <c r="B38" s="3">
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>0.85416666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D38" s="9">
         <v>30</v>
       </c>
-      <c r="E38" s="9">
-        <v>180</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="E38" s="17">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>43797</v>
+        <v>43770</v>
       </c>
       <c r="B39" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>60</v>
+      </c>
+      <c r="E39" s="17">
+        <v>180</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>43771</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>90</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>43770</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>90</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>43775</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>120</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="98">
+        <v>43781</v>
+      </c>
+      <c r="B43" s="94">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C43" s="94">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="D43" s="96">
+        <v>30</v>
+      </c>
+      <c r="E43" s="97">
+        <v>150</v>
+      </c>
+      <c r="F43" s="95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="14">
+        <v>43782</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
         <v>120</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="E44" s="17">
+        <v>360</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>43783</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>120</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="105">
+        <v>43788</v>
+      </c>
+      <c r="B47" s="101">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="101">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D47" s="102">
+        <v>0</v>
+      </c>
+      <c r="E47" s="103">
+        <v>75</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
+        <v>120</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14">
+        <v>43789</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D49" s="9">
+        <v>30</v>
+      </c>
+      <c r="E49" s="9">
+        <v>120</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="110">
+        <v>43790</v>
+      </c>
+      <c r="B50" s="107">
+        <v>0.5625</v>
+      </c>
+      <c r="C50" s="107">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D50" s="108">
+        <v>0</v>
+      </c>
+      <c r="E50" s="109">
+        <v>75</v>
+      </c>
+      <c r="F50" s="111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14">
+        <v>43795</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>30</v>
+      </c>
+      <c r="E51" s="9">
+        <v>210</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="A40" s="14">
-        <v>43798</v>
-      </c>
-      <c r="B40" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C40" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D40" s="8">
-        <v>90</v>
-      </c>
-      <c r="E40" s="8">
-        <v>330</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>43799</v>
-      </c>
-      <c r="B41" s="25">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
-        <v>120</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>43799</v>
-      </c>
-      <c r="B42" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D42" s="8">
-        <v>120</v>
-      </c>
-      <c r="E42" s="8">
-        <v>420</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>43802</v>
-      </c>
-      <c r="B43" s="25">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C43" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>120</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>43802</v>
-      </c>
-      <c r="B44" s="25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C44" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14">
+        <v>43796</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D52" s="9">
+        <v>30</v>
+      </c>
+      <c r="E52" s="9">
         <v>180</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>43803</v>
-      </c>
-      <c r="B45" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C45" s="25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
-        <v>300</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>43803</v>
-      </c>
-      <c r="B46" s="25">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C46" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
-        <v>210</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="A47" s="14">
-        <v>43804</v>
-      </c>
-      <c r="B47" s="25">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C47" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
-        <v>210</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="A48" s="14">
-        <v>43805</v>
-      </c>
-      <c r="B48" s="25">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D48" s="8">
-        <v>30</v>
-      </c>
-      <c r="E48" s="8">
-        <v>270</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>43805</v>
-      </c>
-      <c r="B49" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D49" s="8">
-        <v>30</v>
-      </c>
-      <c r="E49" s="8">
-        <v>180</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>43806</v>
-      </c>
-      <c r="B50" s="25">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>120</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="A51" s="14">
-        <v>43806</v>
-      </c>
-      <c r="B51" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C51" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D51" s="8">
-        <v>90</v>
-      </c>
-      <c r="E51" s="8">
-        <v>390</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="A52" s="14">
-        <v>43807</v>
-      </c>
-      <c r="B52" s="25">
-        <v>0</v>
-      </c>
-      <c r="C52" s="25">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D52" s="8">
-        <v>30</v>
-      </c>
-      <c r="E52" s="8">
-        <v>210</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>43</v>
+      <c r="F52" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.45">
       <c r="A53" s="14">
-        <v>43807</v>
-      </c>
-      <c r="B53" s="25">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C53" s="25">
-        <v>0.95833333333333337</v>
+        <v>43797</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.91666666666666663</v>
       </c>
       <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
         <v>120</v>
       </c>
-      <c r="E53" s="8">
-        <v>570</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>45</v>
+      <c r="F53" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.45">
       <c r="A54" s="14">
-        <v>43808</v>
+        <v>43798</v>
       </c>
       <c r="B54" s="25">
-        <v>0.54166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C54" s="25">
-        <v>0.58333333333333337</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D54" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E54" s="8">
-        <v>60</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>43808</v>
+        <v>43799</v>
       </c>
       <c r="B55" s="25">
-        <v>0.79166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C55" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>240</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>45</v>
+        <v>120</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
+        <v>43799</v>
+      </c>
+      <c r="B56" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D56" s="8">
+        <v>120</v>
+      </c>
+      <c r="E56" s="8">
+        <v>420</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="106" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A57" s="115">
+        <v>43801</v>
+      </c>
+      <c r="B57" s="113">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C57" s="113">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D57" s="114">
+        <v>0</v>
+      </c>
+      <c r="E57" s="116">
+        <v>240</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>43802</v>
+      </c>
+      <c r="B58" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
+        <v>120</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>43802</v>
+      </c>
+      <c r="B59" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8">
+        <v>180</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>43803</v>
+      </c>
+      <c r="B60" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
+        <v>300</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>43803</v>
+      </c>
+      <c r="B61" s="25">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C61" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="8">
+        <v>210</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A62" s="121">
+        <v>43804</v>
+      </c>
+      <c r="B62" s="118">
+        <v>0.5625</v>
+      </c>
+      <c r="C62" s="118">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="120">
+        <v>30</v>
+      </c>
+      <c r="E62" s="122">
+        <v>240</v>
+      </c>
+      <c r="F62" s="119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A63" s="14">
+        <v>43804</v>
+      </c>
+      <c r="B63" s="25">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C63" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
+        <v>210</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A64" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B64" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="8">
+        <v>30</v>
+      </c>
+      <c r="E64" s="8">
+        <v>270</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B65" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D65" s="8">
+        <v>30</v>
+      </c>
+      <c r="E65" s="8">
+        <v>180</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B66" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C66" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>120</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A67" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B67" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C67" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D67" s="8">
+        <v>90</v>
+      </c>
+      <c r="E67" s="8">
+        <v>390</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A68" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B68" s="25">
+        <v>0</v>
+      </c>
+      <c r="C68" s="25">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D68" s="8">
+        <v>30</v>
+      </c>
+      <c r="E68" s="8">
+        <v>210</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A69" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B69" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D69" s="8">
+        <v>120</v>
+      </c>
+      <c r="E69" s="8">
+        <v>570</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A70" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B70" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C70" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
+        <v>60</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A71" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B71" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C71" s="25">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>60</v>
+      </c>
+      <c r="E71" s="8">
+        <v>240</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>43809</v>
       </c>
-      <c r="B56" s="25">
-        <v>0</v>
-      </c>
-      <c r="C56" s="25">
+      <c r="B72" s="25">
+        <v>0</v>
+      </c>
+      <c r="C72" s="25">
         <v>0.25</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D72" s="8">
         <v>60</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E72" s="8">
         <v>300</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F72" s="27" t="s">
         <v>46</v>
       </c>
     </row>
